--- a/storage/kir.xlsx
+++ b/storage/kir.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>KARTU INVENTARIS RUANGAN (KIR)</t>
   </si>
@@ -38,7 +38,7 @@
     <t>UNIT</t>
   </si>
   <si>
-    <t>................................</t>
+    <t>Sekretariat</t>
   </si>
   <si>
     <t>ORGANISASI PERANGKAT DAERAH</t>
@@ -50,7 +50,7 @@
     <t>RUANGAN</t>
   </si>
   <si>
-    <t>.................................</t>
+    <t>Gudang Penyimpanan Aset tetap</t>
   </si>
   <si>
     <t>No urut</t>
@@ -102,6 +102,33 @@
   </si>
   <si>
     <t>(RB)</t>
+  </si>
+  <si>
+    <t>Mesin Pembakar</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>02020101030001</t>
+  </si>
+  <si>
+    <t>tes</t>
+  </si>
+  <si>
+    <t>Mesin Perontok Padi</t>
+  </si>
+  <si>
+    <t>aajkdhj</t>
+  </si>
+  <si>
+    <t>adaadkjak</t>
+  </si>
+  <si>
+    <t>02020101020002</t>
   </si>
 </sst>
 </file>
@@ -117,7 +144,7 @@
       <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Arial Narrow"/>
     </font>
     <font>
       <b val="1"/>
@@ -135,7 +162,7 @@
       <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Arial Narrow"/>
     </font>
   </fonts>
   <fills count="2">
@@ -481,7 +508,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="N13" sqref="N13"/>
@@ -489,20 +516,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.8571428571429" customWidth="true" style="0"/>
-    <col min="2" max="2" width="25.714285714286" customWidth="true" style="0"/>
-    <col min="3" max="3" width="2" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.714285714286" customWidth="true" style="0"/>
-    <col min="5" max="5" width="5.7142857142857" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11" customWidth="true" style="0"/>
-    <col min="7" max="7" width="5.5714285714286" customWidth="true" style="0"/>
-    <col min="8" max="8" width="11.142857142857" customWidth="true" style="0"/>
-    <col min="9" max="9" width="6.4285714285714" customWidth="true" style="0"/>
-    <col min="10" max="10" width="7.1428571428571" customWidth="true" style="0"/>
-    <col min="11" max="11" width="4.7142857142857" customWidth="true" style="0"/>
-    <col min="12" max="12" width="4.7142857142857" customWidth="true" style="0"/>
-    <col min="13" max="13" width="4.7142857142857" customWidth="true" style="0"/>
-    <col min="14" max="14" width="7.8571428571429" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.8" customWidth="true" style="0"/>
+    <col min="2" max="2" width="36" customWidth="true" style="0"/>
+    <col min="3" max="3" width="2.8" customWidth="true" style="0"/>
+    <col min="4" max="4" width="17.8" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8" customWidth="true" style="0"/>
+    <col min="6" max="6" width="15.4" customWidth="true" style="0"/>
+    <col min="7" max="7" width="7.8" customWidth="true" style="0"/>
+    <col min="8" max="8" width="15.6" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9" customWidth="true" style="0"/>
+    <col min="10" max="10" width="10" customWidth="true" style="0"/>
+    <col min="11" max="11" width="6.6" customWidth="true" style="0"/>
+    <col min="12" max="12" width="6.6" customWidth="true" style="0"/>
+    <col min="13" max="13" width="6.6" customWidth="true" style="0"/>
+    <col min="14" max="14" width="11" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -703,6 +730,70 @@
       </c>
       <c r="N13" s="3">
         <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>2018</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>180000</v>
+      </c>
+      <c r="N14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <v>2018</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>1000000</v>
+      </c>
+      <c r="N15" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -724,10 +815,12 @@
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="N9:N12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.196" right="0.196" top="0.511" bottom="0.511" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="A5" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/storage/kir.xlsx
+++ b/storage/kir.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>KARTU INVENTARIS RUANGAN (KIR)</t>
   </si>
@@ -129,6 +129,39 @@
   </si>
   <si>
     <t>02020101020002</t>
+  </si>
+  <si>
+    <t>Mengetahui</t>
+  </si>
+  <si>
+    <t>Sumenep, 6 April 2018</t>
+  </si>
+  <si>
+    <t>Kepala Dinas Pariwisata Kebudayaan</t>
+  </si>
+  <si>
+    <t>Pemuda dan Olahraga</t>
+  </si>
+  <si>
+    <t>Pengurus Barang Pengguna</t>
+  </si>
+  <si>
+    <t>Kabupaten Sumenep</t>
+  </si>
+  <si>
+    <t>Wahyu Ade</t>
+  </si>
+  <si>
+    <t>Lina</t>
+  </si>
+  <si>
+    <t>Sub Bagian Umum dan Kepegawaian</t>
+  </si>
+  <si>
+    <t>NIP: Seksi Olah Raga</t>
+  </si>
+  <si>
+    <t>NIP: 474747</t>
   </si>
 </sst>
 </file>
@@ -176,8 +209,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -196,17 +248,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -508,7 +575,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="N13" sqref="N13"/>
@@ -593,208 +660,345 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="3">
+      <c r="A13" s="8">
         <v>1</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="8">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="8">
         <v>3</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
         <v>4</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="8">
         <v>5</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="8">
         <v>6</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="8">
         <v>7</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="8">
         <v>8</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="8">
         <v>9</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="8">
         <v>10</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="8">
         <v>11</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="8">
         <v>12</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E14">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
         <v>100</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>2018</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>5</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="4">
         <v>180000</v>
       </c>
-      <c r="N14" t="s">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15">
+      <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E15">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
         <v>100</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="6">
         <v>2018</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="6">
         <v>8</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="6">
         <v>1000000</v>
       </c>
-      <c r="N15" t="s">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="B25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="B27" s="2">
+        <v>12345</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -817,6 +1021,11 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="J27:N27"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.196" right="0.196" top="0.511" bottom="0.511" header="0.3" footer="0.3"/>

--- a/storage/kir.xlsx
+++ b/storage/kir.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>KARTU INVENTARIS RUANGAN (KIR)</t>
   </si>
@@ -50,9 +50,6 @@
     <t>RUANGAN</t>
   </si>
   <si>
-    <t>Gudang Penyimpanan Aset tetap</t>
-  </si>
-  <si>
     <t>No urut</t>
   </si>
   <si>
@@ -104,31 +101,52 @@
     <t>(RB)</t>
   </si>
   <si>
-    <t>Mesin Pembakar</t>
-  </si>
-  <si>
-    <t>Kingston</t>
-  </si>
-  <si>
-    <t>Aluminium</t>
-  </si>
-  <si>
-    <t>02020101030001</t>
-  </si>
-  <si>
-    <t>tes</t>
-  </si>
-  <si>
-    <t>Mesin Perontok Padi</t>
-  </si>
-  <si>
-    <t>aajkdhj</t>
-  </si>
-  <si>
-    <t>adaadkjak</t>
-  </si>
-  <si>
-    <t>02020101020002</t>
+    <t>komputer PC</t>
+  </si>
+  <si>
+    <t>lg</t>
+  </si>
+  <si>
+    <t>besii</t>
+  </si>
+  <si>
+    <t>02020102060004</t>
+  </si>
+  <si>
+    <t>baik</t>
+  </si>
+  <si>
+    <t>Mengetahui</t>
+  </si>
+  <si>
+    <t>Sumenep, 11 April 2018</t>
+  </si>
+  <si>
+    <t>Kepala Dinas Pariwisata Kebudayaan</t>
+  </si>
+  <si>
+    <t>Pemuda dan Olahraga</t>
+  </si>
+  <si>
+    <t>Pengurus Barang Pengguna</t>
+  </si>
+  <si>
+    <t>Kabupaten Sumenep</t>
+  </si>
+  <si>
+    <t>SUFIYANTO, SE, M.Si.</t>
+  </si>
+  <si>
+    <t>HERMAN SURYANSAH</t>
+  </si>
+  <si>
+    <t>Kepala Dinas</t>
+  </si>
+  <si>
+    <t>NIP: Pengurus Barang Pengguna</t>
+  </si>
+  <si>
+    <t>NIP: 198005162010011002</t>
   </si>
 </sst>
 </file>
@@ -176,8 +194,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -196,17 +225,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -508,7 +546,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="N13" sqref="N13"/>
@@ -589,212 +627,313 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>4</v>
+      </c>
+      <c r="F13" s="6">
+        <v>5</v>
+      </c>
+      <c r="G13" s="6">
+        <v>6</v>
+      </c>
+      <c r="H13" s="6">
+        <v>7</v>
+      </c>
+      <c r="I13" s="6">
+        <v>8</v>
+      </c>
+      <c r="J13" s="6">
+        <v>9</v>
+      </c>
+      <c r="K13" s="6">
+        <v>10</v>
+      </c>
+      <c r="L13" s="6">
+        <v>11</v>
+      </c>
+      <c r="M13" s="6">
+        <v>12</v>
+      </c>
+      <c r="N13" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2018</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="4">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3">
-        <v>7</v>
-      </c>
-      <c r="I13" s="3">
-        <v>8</v>
-      </c>
-      <c r="J13" s="3">
-        <v>9</v>
-      </c>
-      <c r="K13" s="3">
-        <v>10</v>
-      </c>
-      <c r="L13" s="3">
-        <v>11</v>
-      </c>
-      <c r="M13" s="3">
-        <v>12</v>
-      </c>
-      <c r="N13" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14">
-        <v>2018</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="J14" s="4">
+        <v>9900000</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>180000</v>
-      </c>
-      <c r="N14" t="s">
+    </row>
+    <row r="18" spans="1:14">
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G15">
-        <v>2018</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I15">
-        <v>8</v>
-      </c>
-      <c r="J15">
-        <v>1000000</v>
-      </c>
-      <c r="N15" t="s">
-        <v>33</v>
-      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="B26" s="2">
+        <v>1.9590423198502E+17</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -816,7 +955,11 @@
     <mergeCell ref="N9:N12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="J26:N26"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.196" right="0.196" top="0.511" bottom="0.511" header="0.3" footer="0.3"/>
